--- a/Production History.xlsx
+++ b/Production History.xlsx
@@ -21,18 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Messa in produzione ver. 7 del HA_System</t>
   </si>
   <si>
-    <t>Messa in produzione ver. 5 el HA_System</t>
-  </si>
-  <si>
-    <t>messo in produzione HA_Trend_System con medie mobili ottimizzate da Paolone su EURUSD, AUDUSD, NZDUSD, GBPUSD e GER30</t>
-  </si>
-  <si>
     <t>Sostituito HA_Trend (media ottimizzata) con HA_Trend_AMA solo sul GER30, perchè le performance di luglio lo giustificano, su gli altri simboli no perchè sono uguali a quelle della versione con media ottimizzata</t>
+  </si>
+  <si>
+    <t>messo in produzione HA_Trend_System con medie mobili ottimizzate da Paolone su EURUSD, AUDUSD, NZDUSD, GBPUSD</t>
+  </si>
+  <si>
+    <t>messo in produzione HA_Trend_System con medie mobili ottimizzate da Paolone sul GER30</t>
+  </si>
+  <si>
+    <t>Messa in produzione ver. 5 del HA_System</t>
+  </si>
+  <si>
+    <t>Stoppato tutto (0.01) escluso HA su GER30 e GBPUSD</t>
   </si>
 </sst>
 </file>
@@ -68,9 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -375,14 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D6"/>
+  <dimension ref="B3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="196.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -391,7 +399,7 @@
         <v>42151</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -404,22 +412,39 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>42187</v>
+        <v>42181</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
+        <v>42187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>42215</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>42237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Production History.xlsx
+++ b/Production History.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Messa in produzione ver. 7 del HA_System</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Stoppato tutto (0.01) escluso HA su GER30 e GBPUSD</t>
+  </si>
+  <si>
+    <t>Sostituiti HA_Trend_AMA e HA col nuovo sistema di generazione della libreria dai trade storici</t>
+  </si>
+  <si>
+    <t>Sostituita la HA_Trend (media_ottimizzata) con HA_Trend_AMA su GBPUSD, perchè le performance sembrano più stabili</t>
   </si>
 </sst>
 </file>
@@ -74,10 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -382,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D8"/>
+  <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="196.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -440,6 +447,22 @@
       </c>
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>42254.583333333336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>42254.90902777778</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Production History.xlsx
+++ b/Production History.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Messa in produzione ver. 7 del HA_System</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Sostituita la HA_Trend (media_ottimizzata) con HA_Trend_AMA su GBPUSD, perchè le performance sembrano più stabili</t>
+  </si>
+  <si>
+    <t>Messi in produzione i nuovi sistemi con RECOVERY e registrazione ordini su web server</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D10"/>
+  <dimension ref="B3:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +468,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>42261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
